--- a/TRPGアーカイブ2020.xlsx
+++ b/TRPGアーカイブ2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miku/Desktop/TRPGarcive.com/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FB8285-D77B-F248-A2B3-1B1A09122E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7EC3CE-A463-4C47-A460-998B138A3957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{FBF7A32A-0136-DF4F-B3C3-911EFC7AC927}"/>
+    <workbookView xWindow="1620" yWindow="645" windowWidth="26865" windowHeight="14145" xr2:uid="{FBF7A32A-0136-DF4F-B3C3-911EFC7AC927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="827">
   <si>
     <t>日付</t>
   </si>
@@ -291,12 +291,6 @@
     <t>たかにど傀逅</t>
   </si>
   <si>
-    <t>むつー 夢咲刻夜(SKP)</t>
-  </si>
-  <si>
-    <t>高生紳士 にどみ</t>
-  </si>
-  <si>
     <t>王帥学園ファイト・オア・フライト！</t>
   </si>
   <si>
@@ -1173,17 +1167,1606 @@
     <t>コーサカ 西園チグサ あっくん大魔王</t>
   </si>
   <si>
+    <t>おおやま、いちみボム、Sir1000、ぜろつー、すずきさん、ぱぱびっぷ</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>埋め込み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MCZvbfcsANo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/MCZvbfcsANo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-OiFI3nyhUY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-OiFI3nyhUY" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CjFVm_SA3ks</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CjFVm_SA3ks" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WlOsy4muxIk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WlOsy4muxIk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LIdCK1BMF0w</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LIdCK1BMF0w" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=51hO4oDReBU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/51hO4oDReBU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XUmlexOAIxM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XUmlexOAIxM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pOTD4VMRKUo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/pOTD4VMRKUo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_emZ8AXYJKM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_emZ8AXYJKM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=53XHP9cYXLM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/53XHP9cYXLM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9mPfB-hxA2Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9mPfB-hxA2Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6FZO4H1gjaU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/6FZO4H1gjaU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bX5N3xeu32E&amp;t=2055s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/bX5N3xeu32E" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xNNqTYtVCT8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xNNqTYtVCT8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v6N-Wz1EVM4&amp;t=13491s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/v6N-Wz1EVM4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BajKPsvWs</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h0BajKPsvWs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qt_Rn17xU28&amp;t=20484s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Qt_Rn17xU28" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sQiETOTk5x8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/sQiETOTk5x8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3PYGMlUL0JU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3PYGMlUL0JU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QPFtKyWQMFk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QPFtKyWQMFk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nxz-raTUeJo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Nxz-raTUeJo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MxNRIJa2VjU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/MxNRIJa2VjU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mzzonppkJ90</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mzzonppkJ90" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=54mQdznuyII&amp;t=11806s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/54mQdznuyII" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ehBa-DrD94Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ehBa-DrD94Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gJTVBTekXpc&amp;t=11058s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gJTVBTekXpc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CPOWQNYthXo&amp;t=1626s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CPOWQNYthXo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Waus3rVWdU4&amp;t=17871s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Waus3rVWdU4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oLu5zvgxCq0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oLu5zvgxCq0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w0oALSnG_OY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/w0oALSnG_OY" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uM0otWl-rlA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uM0otWl-rlA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V_CDTq1Dtw4&amp;t=31536s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/V_CDTq1Dtw4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ocmgm4KMRHU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ocmgm4KMRHU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ry12B1PiGtQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ry12B1PiGtQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WYZNlfpBpsw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WYZNlfpBpsw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KZYWEqk4DmA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/KZYWEqk4DmA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8AUDNPlau_Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8AUDNPlau_Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mzj1MP_W5v0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Mzj1MP_W5v0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F_sl5f4lsaE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oBgmNwUkG8Y&amp;t=19980s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oBgmNwUkG8Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/F_sl5f4lsaE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>むつー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>夢咲刻夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(SKP) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高生紳士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にどみ</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uh44JtjvDEo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uh44JtjvDEo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EOLAt5VurnA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EOLAt5VurnA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e9TkJaMrLN0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/e9TkJaMrLN0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zyqcB5qSBB4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/zyqcB5qSBB4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_3XEPHbAFpc&amp;t=9327s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_3XEPHbAFpc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z5Kg-vfJcOk&amp;t=4s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/z5Kg-vfJcOk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wXdct8yqPVU&amp;t=80s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wXdct8yqPVU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7w-t0igE4Hk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7w-t0igE4Hk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hzK3dc1w8uw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/hzK3dc1w8uw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M9cwvKUv-I4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/M9cwvKUv-I4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ARGtdp7Rpg4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ARGtdp7Rpg4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ncuhJuNUMIk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ncuhJuNUMIk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nqy6lbOxTYA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nqy6lbOxTYA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uL19zNA9QKk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uL19zNA9QKk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GnLhj7yMICQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GnLhj7yMICQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W2OzfIbugpk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/W2OzfIbugpk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qgVfAgAorA4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qgVfAgAorA4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FSAWNLqSE6Q&amp;t=17s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/FSAWNLqSE6Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Az-weslGJK4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Az-weslGJK4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8PIv2G8PbxM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8PIv2G8PbxM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X5E9m8nylj8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/X5E9m8nylj8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wIHYr-GMhVM&amp;t=3s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wIHYr-GMhVM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IGuC4NWb1Tk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/IGuC4NWb1Tk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4c9zCdVdO0I</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4c9zCdVdO0I" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SRr4RfTd-I8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SRr4RfTd-I8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-R-Ar8J2OoY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-R-Ar8J2OoY" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r03N_rIT7HU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/r03N_rIT7HU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UOmLScQxUQE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UOmLScQxUQE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XRce9aQe8tU&amp;t=21243s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XRce9aQe8tU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0EzIbE3YTFg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0EzIbE3YTFg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OM7v8eikf7g</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/OM7v8eikf7g" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BcAQ3lUR35Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BcAQ3lUR35Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MLPX93YXa-o</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/MLPX93YXa-o" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9m6rhsNeA2Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9m6rhsNeA2Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOKx4s3iYZE</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gOKx4s3iYZE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pZAV6bsfrW8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/pZAV6bsfrW8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D9A-X8DcWD0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/D9A-X8DcWD0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h3rfmS8_Ask</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/h3rfmS8_ASk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xcmr7sOZT3M</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xcmr7sOZT3M" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_JRdh9FQHlk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_JRdh9FQHlk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WjRNT4aVYjI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WjRNT4aVYjI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Uj4zCei__wQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Uj4zCei__wQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YkTx18zFOSo&amp;t=9323s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/YkTx18zFOSo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VOqr4oHs1Sw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/VOqr4oHs1Sw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PawQMQ1jc0Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PawQMQ1jc0Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xRVWviVI8WE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xRVWviVI8WE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rFrOnNfccaU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rFrOnNfccaU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgA3xwdnxWg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/vgA3xwdnxWg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Aj4MkjgWSLU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Aj4MkjgWSLU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pJrT2MFCyb4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/pJrT2MFCyb4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-k9VZU1ETJo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-k9VZU1ETJo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0bZMm9UTaHA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0bZMm9UTaHA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n0YLe7OLdmQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/n0YLe7OLdmQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nVHZ9AuZXyk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nVHZ9AuZXyk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cHAaq0ee52c</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cHAaq0ee52c" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-uL-1eRBOwQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-uL-1eRBOwQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZBa1rLA3J3Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZBa1rLA3J3Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1FwmVi93H8Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1FwmVi93H8Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ySTt0ccMM28</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ySTt0ccMM28" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e4eG3EPl4ck</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/e4eG3EPl4ck" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=afQi74I4l24</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/afQi74I4l24" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CcHiUchytWg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CcHiUchytWg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3lY9Rl8iLTQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3lY9Rl8iLTQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=foXiExAao_g</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/foXiExAao_g" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_RnTwG3nAKA&amp;t=22021s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_RnTwG3nAKA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cjdyppjYO_M&amp;t=22083s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cjdyppjYO_M" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dv9EjQDnZz4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dv9EjQDnZz4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvFL9xKVTh4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/VvFL9xKVTh4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vx85iX8SuRY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/vx85iX8SuRY" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>内藤某と探索者</t>
+    <rPh sb="0" eb="2">
+      <t>ナイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニガシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-MZ6DPauSx8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-MZ6DPauSx8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vv3mHyNEr_Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Vv3mHyNEr_Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZevUxdOlr8A</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZevUxdOlr8A" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J21_iHexQac</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/J21_iHexQac" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b4EffyxOjxw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b4EffyxOjxw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tMGeFC77cjA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tMGeFC77cjA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UeplVhP15K8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UeplVhP15K8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1JoAxeeMyHo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1JoAxeeMyHo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jpo4d0wVSNE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/jpo4d0wVSNE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1A28ZjrTBs</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/w1A28ZjrTBs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PdtjSDgvDlQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PdtjSDgvDlQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>ユーガタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hZ-kSFZKzxo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/hZ-kSFZKzxo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AvlPi11eX5U</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AvlPi11eX5U" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=biOv9Nf3M7U</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/biOv9Nf3M7U" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CLbXboZtqh0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CLbXboZtqh0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IAyvMRCRkFE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/IAyvMRCRkFE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxqkcZ-eGYU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oxqkcZ-eGYU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jxspUWFVI4Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/jxspUWFVI4Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-eEMQgxk9K0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-eEMQgxk9K0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xQOJ12p83LQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xQOJ12p83LQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EhxV394iY4k</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EhxV394iY4k" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ixazb9EsESI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ixazb9EsESI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BP1Idvqo3AE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BP1Idvqo3AE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qSkoAn4kQ98</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qSkoAn4kQ98" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=97jO5rRzEJ4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/97jO5rRzEJ4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4_DYYW_cvdI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4_DYYW_cvdI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y806S0N05wk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Y806S0N05wk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wY-vmGwiI3c</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wY-vmGwiI3c" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m-zJWh_eCFs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/m-zJWh_eCFs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ct7xsehq2MI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ct7xsehq2MI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rdX181BpSRg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rdX181BpSRg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cwdgqM-7f08&amp;t=348s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cwdgqM-7f08" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WukRGcKYigg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WukRGcKYigg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HIfHrUnKUUw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/HIfHrUnKUUw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AViVj2GUf1A</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AViVj2GUf1A" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SLd13VUaQ9o</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SLd13VUaQ9o" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OiRI4mHgIjU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/OiRI4mHgIjU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJXYePnlNLc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lJXYePnlNLc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1XzVi-O_hG8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1XzVi-O_hG8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lUDJP7JY-oc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lUDJP7JY-oc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wE10KHPMGAQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wE10KHPMGAQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jmTiVgvBIhM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/jmTiVgvBIhM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=95ifq4o0Eec</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/95ifq4o0Eec" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YMy0Xde_aeg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/YMy0Xde_aeg" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1X3ImV0N6F4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1X3ImV0N6F4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9OiHMtNYido&amp;t=5643s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9OiHMtNYido" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hk5Zz9WgEI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/6hk5Zz9WgEI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qzvP4gC6JXw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qzvP4gC6JXw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_g0cmUp0LiM</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_g0cmUp0LiM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gHCJl6rkflU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gHCJl6rkflU" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j83sSAQKkKA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/j83sSAQKkKA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HoqBA1kC_Eo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/HoqBA1kC_Eo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MGct8ZXtNJI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/MGct8ZXtNJI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4iV6TvqIz6Q</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4iV6TvqIz6Q" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZMpTHtiI17c</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ZMpTHtiI17c" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bf18uFKDe3U&amp;t=1174s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Bf18uFKDe3U" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZ1YV4WQS7I</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lZ1YV4WQS7I" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tuCQuBnaU3A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tuCQuBnaU3A" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBlSdS9HhgM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mBlSdS9HhgM" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E50IBFcFBqQ&amp;t=2s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/E50IBFcFBqQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B_Afo0w-ASw&amp;t=446s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/B_Afo0w-ASw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aBr1fhMlrV0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/aBr1fhMlrV0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6rT-mJipUTs&amp;t=10146s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/6rT-mJipUTs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CH8sFj6RL5M</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CH8sFj6RL5M" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zIU-K6RE6dk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/zIU-K6RE6dk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4I5rlTkC4Nw&amp;t=18s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4I5rlTkC4Nw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ib_WSCtmduQ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ib_WSCtmduQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7WKARj1slPs&amp;t=5019s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7WKARj1slPs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q_7diYSJWJs&amp;t=21157s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Q_7diYSJWJs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bZJFX0XAV2A</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/bZJFX0XAV2A" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YLbzl0voOUI&amp;t=9061s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/YLbzl0voOUI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vYW48CInQSE</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/vYW48CInQSE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-aLVG1Vy1GQ&amp;t=16s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-aLVG1Vy1GQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=suKFNbROLwo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/suKFNbROLwo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xOjASigLyT8&amp;t=8437s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xOjASigLyT8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P6fQgxDMFlE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/P6fQgxDMFlE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OG9lYPND81o</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/OG9lYPND81o" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zXfhEztvfPE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/zXfhEztvfPE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EcrEWKMfC5E</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EcrEWKMfC5E" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8KoO2s4DLo4&amp;t=1s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8KoO2s4DLo4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uBfcrqm-NL0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uBfcrqm-NL0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bHYNKKllAV4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/bHYNKKllAV4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AUi4v1HRBg0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AUi4v1HRBg0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>初陽死霊</t>
-  </si>
-  <si>
-    <t>おおやま、いちみボム、Sir1000、ぜろつー、すずきさん、ぱぱびっぷ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FRXiuBkl2qQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/FRXiuBkl2qQ" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PDhwiRJCyw4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PDhwiRJCyw4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=25dg9ByR1e4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/25dg9ByR1e4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U2K3exWCJJI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/U2K3exWCJJI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ivg1fTS4fuA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ivg1fTS4fuA" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uy03TfvRHwY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uy03TfvRHwY" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ol9PM_RYGiw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Ol9PM_RYGiw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xATujJoxqik</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xATujJoxqik" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DXNYey9jJjk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/DXNYey9jJjk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKhpZTXKrzI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cKhpZTXKrzI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tM3QNoSK0Pc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tM3QNoSK0Pc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BY54NgpgcZE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BY54NgpgcZE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a1W8m_up-2Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/a1W8m_up-2Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9aBGQxkKsyI</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/9aBGQxkKsyI" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FI8VQWx3W-8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/FI8VQWx3W-8" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oEcK3xyN2oc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oEcK3xyN2oc" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8hPVM7d_3h0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8hPVM7d_3h0" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cUDBhrvckpE</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cUDBhrvckpE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-0vFKYrVRA4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-0vFKYrVRA4" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mFZUlA8bZAo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mFZUlA8bZAo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-zLVkMHfvsk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-zLVkMHfvsk" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-7UshmZ69s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/f-7UshmZ69s" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D8scMnE3J3s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/D8scMnE3J3s" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tYNJnAIqocw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tYNJnAIqocw" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qd--gv3BO8w</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qd--gv3BO8w" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7JGxrJCtF4Y&amp;t=1s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7JGxrJCtF4Y" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g15_WMU_Vno&amp;t=5774s</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/g15_WMU_Vno" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4X6fk6jLN9U</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4X6fk6jLN9U" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TYlrxV4Bfhs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/TYlrxV4Bfhs" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1222,6 +2805,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1245,7 +2870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,6 +2893,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,18 +3224,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2007D7-9950-0D45-82F7-854BC56C3072}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="80.5546875" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,8 +3251,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -1622,8 +3271,14 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43833</v>
       </c>
@@ -1636,8 +3291,14 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43836</v>
       </c>
@@ -1650,8 +3311,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43842</v>
       </c>
@@ -1664,8 +3331,14 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43853</v>
       </c>
@@ -1678,8 +3351,14 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43855</v>
       </c>
@@ -1692,8 +3371,14 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43862</v>
       </c>
@@ -1704,358 +3389,520 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="F9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>43870</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>43871</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="E12" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>43876</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>43883</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43883</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>43884</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>43885</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="E17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <v>43887</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="E18" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
         <v>43889</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="E19" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" t="s">
+        <v>414</v>
+      </c>
+      <c r="H19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
         <v>43890</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="E20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
         <v>43897</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="E21" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
         <v>43901</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="E22" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
         <v>43903</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="E23" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
         <v>43906</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
         <v>43909</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="E25" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
         <v>43911</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="E26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="6">
         <v>43915</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="E27" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
         <v>43917</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="E28" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
         <v>43918</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="E29" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
         <v>43921</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="E30" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
         <v>43922</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43931</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="E33" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
         <v>43932</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
-        <v>43933</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>75</v>
@@ -2064,54 +3911,78 @@
         <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="E35" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
         <v>43936</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="E36" t="s">
+        <v>448</v>
+      </c>
+      <c r="F36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
         <v>43938</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="E37" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
         <v>43939</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
-        <v>43940</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
@@ -2120,2541 +3991,3660 @@
         <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="E39" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
         <v>43941</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
-        <v>43947</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="E42" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
         <v>43949</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>470</v>
+      </c>
+      <c r="F44" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>472</v>
+      </c>
+      <c r="F45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43954</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>474</v>
+      </c>
+      <c r="F46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E47" t="s">
+        <v>476</v>
+      </c>
+      <c r="F47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E48" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
-        <v>43957</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
-        <v>43960</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F49" t="s">
+        <v>481</v>
+      </c>
+      <c r="G49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43960</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>486</v>
+      </c>
+      <c r="F51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
-        <v>43961</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
-        <v>43967</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43967</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" t="s">
+        <v>496</v>
+      </c>
+      <c r="F56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
-        <v>43968</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
-        <v>43971</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
-        <v>43972</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E58" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
-        <v>43973</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
-        <v>43974</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
-        <v>43975</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43975</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E62" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
-        <v>43977</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
-        <v>43979</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="E63" t="s">
+        <v>506</v>
+      </c>
+      <c r="F63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
-        <v>43980</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="E64" t="s">
+        <v>508</v>
+      </c>
+      <c r="F64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
-        <v>43982</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
-        <v>43987</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43988</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
-        <v>43989</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E69" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
-        <v>43994</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
-        <v>43996</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>524</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43996</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>528</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" t="s">
+        <v>512</v>
+      </c>
+      <c r="F72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
-        <v>43997</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="E73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
         <v>43998</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
-        <v>43999</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>532</v>
+      </c>
+      <c r="F74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F75" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>538</v>
+      </c>
+      <c r="F76" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
-        <v>44000</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
-        <v>44001</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
-        <v>44002</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F77" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>44002</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>534</v>
+      </c>
+      <c r="F78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
-        <v>44003</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
-        <v>44009</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44009</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44009</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>550</v>
+      </c>
+      <c r="F82" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F83" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
-        <v>44010</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="E84" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F84" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F85" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
-        <v>44012</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
-        <v>44014</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
-        <v>44015</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>562</v>
+      </c>
+      <c r="F86" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44015</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F87" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>566</v>
+      </c>
+      <c r="F88" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E89" t="s">
+        <v>568</v>
+      </c>
+      <c r="F89" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="E90" t="s">
+        <v>570</v>
+      </c>
+      <c r="F90" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44031</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" t="s">
+        <v>574</v>
+      </c>
+      <c r="F91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>576</v>
+      </c>
+      <c r="F92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="E93" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F93" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
-        <v>44037</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="E94" t="s">
+        <v>580</v>
+      </c>
+      <c r="F94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
-        <v>44042</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="E95" t="s">
+        <v>771</v>
+      </c>
+      <c r="F95" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44043</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" t="s">
+        <v>773</v>
+      </c>
+      <c r="F96" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+      <c r="D97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F97" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
         <v>44044</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+      <c r="D98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" t="s">
+        <v>546</v>
+      </c>
+      <c r="F98" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
         <v>44046</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
-        <v>44049</v>
-      </c>
       <c r="B99" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="F99" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F100" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44052</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" t="s">
+        <v>582</v>
+      </c>
+      <c r="F101" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="E102" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F102" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="C103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F103" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44057</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F104" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F105" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="E106" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F107" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44064</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F108" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>592</v>
+      </c>
+      <c r="F109" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>44065</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F110" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>44065</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F111" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F112" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+      <c r="E113" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F113" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
         <v>44068</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
-        <v>44069</v>
-      </c>
       <c r="B114" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="E114" t="s">
+        <v>779</v>
+      </c>
+      <c r="F114" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="F115" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>44070</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="F116" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F117" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
-        <v>44072</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="E118" t="s">
+        <v>615</v>
+      </c>
+      <c r="F118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E119" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F119" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
-        <v>44074</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C120" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="E120" t="s">
+        <v>621</v>
+      </c>
+      <c r="F120" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E121" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F121" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F122" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44085</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="F123" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E124" t="s">
+        <v>628</v>
+      </c>
+      <c r="F124" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="E125" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="F125" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="E126" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F126" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F127" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44090</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>55</v>
+        <v>228</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="E128" t="s">
+        <v>636</v>
+      </c>
+      <c r="F128" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44090</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F129" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+      <c r="D130" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F130" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
         <v>44091</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
-        <v>44092</v>
-      </c>
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E131" t="s">
+        <v>787</v>
+      </c>
+      <c r="F131" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+      <c r="E132" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="F132" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
         <v>44094</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="E133" t="s">
+        <v>640</v>
+      </c>
+      <c r="F133" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44095</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E134" t="s">
+        <v>803</v>
+      </c>
+      <c r="F134" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44095</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" t="s">
+        <v>642</v>
+      </c>
+      <c r="F135" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
-        <v>44096</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>240</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="F136" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44096</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="F137" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+      <c r="D138" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="F138" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
         <v>44097</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+      <c r="E139" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="F139" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
         <v>44099</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
-        <v>44100</v>
-      </c>
       <c r="B140" s="1" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="E140" t="s">
+        <v>793</v>
+      </c>
+      <c r="F140" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44100</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="F141" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="F142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
-        <v>44102</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="E143" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F143" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>805</v>
+      </c>
+      <c r="F144" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>654</v>
+      </c>
+      <c r="F145" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>656</v>
+      </c>
+      <c r="F146" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="E147" t="s">
+        <v>658</v>
+      </c>
+      <c r="F147" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F148" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44110</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="F149" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" t="s">
+        <v>662</v>
+      </c>
+      <c r="F150" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F151" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44113</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>263</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F152" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44113</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="E153" t="s">
+        <v>666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>267</v>
+      </c>
+      <c r="E154" t="s">
+        <v>668</v>
+      </c>
+      <c r="F154" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="E155" t="s">
+        <v>670</v>
+      </c>
+      <c r="F155" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44118</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E156" t="s">
+        <v>674</v>
+      </c>
+      <c r="F156" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E157" t="s">
+        <v>809</v>
+      </c>
+      <c r="F157" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F158" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>44121</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F159" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D160" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>276</v>
+      </c>
+      <c r="E160" t="s">
+        <v>678</v>
+      </c>
+      <c r="F160" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>44122</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="F161" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" t="s">
+        <v>680</v>
+      </c>
+      <c r="F162" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+      <c r="E163" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="F163" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
         <v>44126</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
-        <v>44127</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>282</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="F164" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>44127</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>283</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>44127</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F166" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F167" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="6">
+        <v>44129</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="6">
-        <v>44129</v>
-      </c>
-      <c r="B167" s="7" t="s">
+      <c r="E168" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="F168" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7" t="s">
+      <c r="C169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="E169" t="s">
+        <v>813</v>
+      </c>
+      <c r="F169" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="E170" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F170" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F171" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>694</v>
+      </c>
+      <c r="F172" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>44141</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="F173" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F174" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+      <c r="E175" t="s">
+        <v>586</v>
+      </c>
+      <c r="F175" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="2">
         <v>44143</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
-        <v>44144</v>
-      </c>
       <c r="B176" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>303</v>
+      </c>
+      <c r="E176" t="s">
+        <v>817</v>
+      </c>
+      <c r="F176" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E177" t="s">
+        <v>819</v>
+      </c>
+      <c r="F177" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E178" t="s">
+        <v>698</v>
+      </c>
+      <c r="F178" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="E179" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F179" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="E180" t="s">
+        <v>692</v>
+      </c>
+      <c r="F180" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" t="s">
+        <v>821</v>
+      </c>
+      <c r="F181" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>706</v>
+      </c>
+      <c r="F182" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>44151</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F183" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E184" t="s">
+        <v>710</v>
+      </c>
+      <c r="F184" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A185" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E185" t="s">
+        <v>714</v>
+      </c>
+      <c r="F185" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A186" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="F186" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>44157</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F187" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A188" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D188" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E188" t="s">
+        <v>720</v>
+      </c>
+      <c r="F188" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>44160</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E189" t="s">
+        <v>722</v>
+      </c>
+      <c r="F189" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A190" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E190" t="s">
+        <v>724</v>
+      </c>
+      <c r="F190" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A191" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="E191" t="s">
+        <v>726</v>
+      </c>
+      <c r="F191" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A192" s="5">
+        <v>44162</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="5">
-        <v>44162</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F192" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>44163</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F193" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A194" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="E194" t="s">
+        <v>730</v>
+      </c>
+      <c r="F194" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A195" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="C195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="E195" t="s">
+        <v>732</v>
+      </c>
+      <c r="F195" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A196" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D194" s="1" t="s">
+      <c r="E196" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="F196" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A197" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="E197" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="F197" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A198" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
-        <v>44167</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="C198" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
-        <v>44169</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="E198" t="s">
+        <v>736</v>
+      </c>
+      <c r="F198" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A199" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="C199" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
-        <v>44170</v>
-      </c>
-      <c r="B198" s="1" t="s">
+      <c r="E199" t="s">
+        <v>738</v>
+      </c>
+      <c r="F199" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A200" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D198" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
-        <v>44171</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
-        <v>44172</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="s">
+        <v>742</v>
+      </c>
+      <c r="F200" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>44172</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E201" t="s">
+        <v>744</v>
+      </c>
+      <c r="F201" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A202" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
-        <v>44174</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D202" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="E202" t="s">
+        <v>801</v>
+      </c>
+      <c r="F202" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>44174</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E203" t="s">
+        <v>746</v>
+      </c>
+      <c r="F203" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A204" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E204" t="s">
+        <v>748</v>
+      </c>
+      <c r="F204" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A205" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="C205" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
-        <v>44175</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="E205" t="s">
+        <v>750</v>
+      </c>
+      <c r="F205" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A206" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D204" s="1" t="s">
+      <c r="C206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
-        <v>44176</v>
-      </c>
-      <c r="B205" s="1" t="s">
+      <c r="E206" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="F206" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A207" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>825</v>
+      </c>
+      <c r="F207" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A208" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D205" s="1" t="s">
+      <c r="C208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
-        <v>44181</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="E208" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F208" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A209" s="6">
+        <v>44182</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="6">
-        <v>44182</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="E209" t="s">
+        <v>712</v>
+      </c>
+      <c r="F209" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A210" s="5">
+        <v>44185</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="5">
-        <v>44185</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
-        <v>44186</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="s">
+        <v>740</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>44186</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="F211" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A212" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+      <c r="D212" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F212" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A213" s="2">
         <v>44187</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="5">
-        <v>44188</v>
-      </c>
       <c r="B213" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
-        <v>44191</v>
+        <v>364</v>
+      </c>
+      <c r="E213" t="s">
+        <v>704</v>
+      </c>
+      <c r="F213" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A214" s="5">
+        <v>44188</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>366</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F214" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>44191</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E215" t="s">
+        <v>762</v>
+      </c>
+      <c r="F215" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A216" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="F216" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A217" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
-        <v>44192</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="E217" t="s">
+        <v>764</v>
+      </c>
+      <c r="F217" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A218" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
-        <v>44193</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="F218" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>44196</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>379</v>
+        <v>109</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="F219" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A220" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E220" t="s">
+        <v>769</v>
+      </c>
+      <c r="F220" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>